--- a/CSS/Hints.xlsx
+++ b/CSS/Hints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FrontEnd\CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447BDCAF-21D7-4E5B-A256-E1B047432084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10D95E0-75F9-4F74-8F32-53A92A7C73E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="516" yWindow="1152" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Case</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Insert fontawesome</t>
-  </si>
-  <si>
-    <t>"@import url(https://use.fontawesome.com/releases/v5.15.4/css/all.css);"</t>
   </si>
   <si>
     <t>Text shadow</t>
@@ -865,6 +862,54 @@
   font-family: "Simo";
   src: url("fonts/ShadowsIntoLight-Regular.ttf");
 }"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    justify-content: space-between;</t>
+  </si>
+  <si>
+    <t>space between Flex</t>
+  </si>
+  <si>
+    <t>root things:</t>
+  </si>
+  <si>
+    <t>:root {
+    --clr-primary: #e24e2a;
+    --clr-grey: #ececec;
+    --clr-grey-dark: #3f3f3f;
+    --clr-grey-text: #575652;
+    --clr-grey-bg: #383838;
+    --clr-green: #1b9772;
+    --clr-green-text: #3aa483;
+    --clr-green-link: #8ec2aa;
+    --clr-white: #fff;
+    --header-height: 76px;
+  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    height: calc(100vh - var(--header-height));</t>
+  </si>
+  <si>
+    <t>cal rest of height view</t>
+  </si>
+  <si>
+    <t>.divider {
+    height: 1px;
+    background-color: var(--clr-grey-text);
+    margin-bottom: 1rem;
+  }</t>
+  </si>
+  <si>
+    <t>.divider</t>
+  </si>
+  <si>
+    <t>"@import url(https://cdnjs.cloudflare.com/ajax/libs/font-awesome/6.3.0/css/all.min.css);"</t>
+  </si>
+  <si>
+    <t>import css</t>
+  </si>
+  <si>
+    <t>"@import url(./reset.css);"</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1306,10 +1351,10 @@
     </row>
     <row r="2" spans="1:2" ht="50.4" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="50.4" customHeight="1">
@@ -1317,208 +1362,228 @@
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="50.4" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="50.4" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="1:2" ht="50.4" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30.6" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:2" ht="30.6" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.2">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:2" ht="43.2">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.2">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:2" ht="43.2">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2"/>
+      <c r="A12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.8">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="129.6">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:2" ht="129.6">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8">
-      <c r="A18" s="8" t="s">
+    <row r="20" spans="1:2" ht="28.8">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="43.2">
-      <c r="A20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="43.2">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2">
       <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.2">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="43.2">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" ht="216">
+      <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" ht="216">
-      <c r="A24" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="5" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="72">
+      <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="72">
-      <c r="A25" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="187.2">
+      <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="72">
+      <c r="A31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2"/>
@@ -1543,6 +1608,14 @@
     <row r="37" spans="1:2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,197 +1638,197 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
